--- a/biology/Botanique/Nepeta/Nepeta.xlsx
+++ b/biology/Botanique/Nepeta/Nepeta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Népétas, ou Népètes, forment un genre (Nepeta) de plantes dicotylédones de la famille des Lamiacées.
 Il existe environ 250 espèces de Nepeta. En outre, certaines espèces des genres Dracocephalum, Calamintha et Glechoma hederacea pourraient être considérées comme des Nepeta. Certaines Népétas, dont Nepeta cataria, Cataire ou Menthe à chats, ont un effet euphorique sur certains félins, notamment le chat.
@@ -513,7 +525,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nepeta adenophyta Hedge
@@ -795,7 +809,9 @@
           <t>Effets sur le félin commun</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces de Nepeta sont principalement connues pour les effets qu'elles ont sur les félins. Cette réaction est d'ailleurs à l'origine de leurs noms, elles sont généralement appelées Herbe aux chats ou Menthe des chats et ceci quelle que soit la langue. Les Nepeta peuvent causer des réactions incroyables une fois données aux chats, cependant, tous les chats ne sont pas affectés par la Cataire car la capacité à la détecter semble liée à la présence d'un gène récessif dans leur héritage biologique. Pour un chat porteur de deux copies de ce gène, la cataire aura un effet extraordinaire; pour un chat porteur d'une seule copie, l'effet sera notable, et un chat non porteur n'aura aucun intérêt particulier pour la plante.
 			Un maine coon mâle...
@@ -838,13 +854,15 @@
           <t>Intérêt médicinal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nepeta amethystina est utilisée par la médecine traditionnelle du Maroc comme analgésique, sédatif (avec une efficacité dose-dépendante), ainsi que pour accélérer la cicatrisation des abcès.
-En France, au moins jusqu'au XXe siècle, cette plante a été utilisée, en mastication, contre les maux de dents[1].
-Son huile essentielle présente une activité psychotrope qui a été récemment (2019)  étudiée en même temps que sa toxicité[2] : 
-à 25 mg/kg par voie intrapéritonéale (IP) l'effet sédatif est faible, puis il grandit de manière dose-dépendante pour devenir à 50 mg/kg IP comparable à celui d'un produit de référence qui est le diazépam (à 3 mg/kg IP)[2] ;
-la même huile essentielle a aussi effet anxiolytique, également dose-dépendant, également faible à 25 mg/kg IP, mais très net à 50 mg/kg IP ; plus efficace à cette dose que le diazépam à 3 mg/kg IP[2].</t>
+En France, au moins jusqu'au XXe siècle, cette plante a été utilisée, en mastication, contre les maux de dents.
+Son huile essentielle présente une activité psychotrope qui a été récemment (2019)  étudiée en même temps que sa toxicité : 
+à 25 mg/kg par voie intrapéritonéale (IP) l'effet sédatif est faible, puis il grandit de manière dose-dépendante pour devenir à 50 mg/kg IP comparable à celui d'un produit de référence qui est le diazépam (à 3 mg/kg IP) ;
+la même huile essentielle a aussi effet anxiolytique, également dose-dépendant, également faible à 25 mg/kg IP, mais très net à 50 mg/kg IP ; plus efficace à cette dose que le diazépam à 3 mg/kg IP.</t>
         </is>
       </c>
     </row>
